--- a/documentos/ArtefactosGestão/Cronograma (1).xlsx
+++ b/documentos/ArtefactosGestão/Cronograma (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7cd1e695f21665d4/Desktop/2025.2026/LDS/LDS/documentos/ArtefactosGestão/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaan_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E338546-ECF0-43B7-BEB8-071C0CBB7855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948ABD92-97BF-4D48-8B98-372ADFCC08EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E8F11F1-825A-4FEF-BF4F-65B464598F80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{0E8F11F1-825A-4FEF-BF4F-65B464598F80}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="98">
   <si>
     <t>Cronograma de projeto TAP&amp;Send</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>8:00h</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Ali Kaan Ersoy - 8250117</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +481,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -649,6 +661,15 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,21 +700,58 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -703,41 +761,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,53 +779,215 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -806,184 +998,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1056,7 +1071,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1374,29 +1389,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2317E717-59E5-474F-B3A4-97AF70212110}">
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="72.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="72.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45687</v>
       </c>
@@ -1404,44 +1419,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="18" t="s">
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1460,7 +1475,7 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="3">
         <v>26</v>
       </c>
@@ -1522,18 +1537,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>42</v>
       </c>
@@ -1550,9 +1565,9 @@
         <v>47</v>
       </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>43</v>
       </c>
@@ -1569,9 +1584,9 @@
         <v>47</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
@@ -1588,9 +1603,9 @@
         <v>47</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>50</v>
       </c>
@@ -1607,9 +1622,9 @@
         <v>47</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>49</v>
       </c>
@@ -1626,9 +1641,9 @@
         <v>47</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1645,9 +1660,9 @@
         <v>47</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>82</v>
       </c>
@@ -1664,9 +1679,9 @@
         <v>47</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1683,9 +1698,9 @@
         <v>47</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -1694,35 +1709,35 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -1731,9 +1746,9 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -1742,9 +1757,9 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>54</v>
       </c>
@@ -1753,9 +1768,9 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>55</v>
       </c>
@@ -1764,9 +1779,9 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>56</v>
       </c>
@@ -1775,9 +1790,9 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="19"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>57</v>
       </c>
@@ -1786,9 +1801,9 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>58</v>
       </c>
@@ -1797,9 +1812,9 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
@@ -1808,9 +1823,9 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>78</v>
       </c>
@@ -1819,9 +1834,9 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>60</v>
       </c>
@@ -1830,9 +1845,9 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>71</v>
       </c>
@@ -1841,46 +1856,46 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="11">
         <v>45940</v>
       </c>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F33" s="11">
         <v>45947</v>
       </c>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1889,9 +1904,9 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>63</v>
       </c>
@@ -1900,9 +1915,9 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -1911,9 +1926,9 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -1922,9 +1937,9 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1933,9 +1948,9 @@
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -1944,9 +1959,9 @@
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>48</v>
       </c>
@@ -1955,9 +1970,9 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="19"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>78</v>
       </c>
@@ -1966,9 +1981,9 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -1977,9 +1992,9 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -1988,9 +2003,9 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>71</v>
       </c>
@@ -1999,46 +2014,46 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F48" s="11">
         <v>45968</v>
       </c>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F49" s="11">
         <v>45975</v>
       </c>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="12"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -2047,9 +2062,9 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -2058,9 +2073,9 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -2069,9 +2084,9 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -2080,9 +2095,9 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -2091,9 +2106,9 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-      <c r="G56" s="19"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -2102,9 +2117,9 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>48</v>
       </c>
@@ -2113,9 +2128,9 @@
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>78</v>
       </c>
@@ -2124,9 +2139,9 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -2135,9 +2150,9 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-      <c r="G60" s="19"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>71</v>
       </c>
@@ -2146,25 +2161,25 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F62" s="11">
         <v>45996</v>
       </c>
-      <c r="G62" s="19"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F63" s="11">
         <v>46003</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2223,27 +2238,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472147B7-6745-4EC2-A45A-5B3320EFD927}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="36" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="8" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="8" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2251,28 +2266,28 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+    <row r="2" spans="1:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -2297,462 +2312,466 @@
       <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="41" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="41"/>
-    </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="27"/>
+    </row>
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="46" t="s">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="42" t="s">
+      <c r="O4" s="52"/>
+      <c r="P4" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="42"/>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="47"/>
+    </row>
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="J5" s="61" t="s">
+      <c r="J5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="47" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="48"/>
-      <c r="P5" s="43" t="s">
+      <c r="O5" s="32"/>
+      <c r="P5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="43"/>
-    </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="48"/>
+    </row>
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>0.375</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="49" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="32" t="s">
+      <c r="O6" s="33"/>
+      <c r="P6" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="49"/>
+    </row>
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="J7" s="45" t="s">
+      <c r="E7" s="62"/>
+      <c r="J7" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="50" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="34"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="J8" s="45" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="J8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="50" t="s">
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="50"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="34"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="J9" s="28" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="J9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29">
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45">
         <v>45936</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30" t="s">
+      <c r="O9" s="46"/>
+      <c r="P9" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="30"/>
-    </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="46"/>
+    </row>
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="51" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="62"/>
+      <c r="F10" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29">
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45">
         <v>45945</v>
       </c>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30" t="s">
+      <c r="O10" s="46"/>
+      <c r="P10" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="30"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="46"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="56"/>
-      <c r="J11" s="28" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="40"/>
+      <c r="J11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29">
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="45">
         <v>45960</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30" t="s">
+      <c r="O11" s="46"/>
+      <c r="P11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="30"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="46"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>0.5</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="56"/>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="63"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="56"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="37"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="38"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="32"/>
-    </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="49"/>
+    </row>
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="E16" s="31" t="s">
+      <c r="C16" s="49"/>
+      <c r="E16" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G16" s="59" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="E17" s="31"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="23" t="s">
+      <c r="C17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="61" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>0.625</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="27" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="60"/>
+      <c r="H18" s="62"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="62"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="62"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="62"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="62"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="D21" s="27"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="62"/>
+      <c r="D21" s="65"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="62"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="D22" s="27"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="62"/>
+      <c r="D22" s="65"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="62"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="62"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="62"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>0.75</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="63"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="62"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="62"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="24"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="62"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="62"/>
+      <c r="H26" s="62"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>0.8125</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="24"/>
-      <c r="H27" s="25"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="62"/>
+      <c r="H27" s="63"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="62"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="62"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="63"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="63"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>0.875</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="64" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="62"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="64"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>0.9375</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="26"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="62"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="64"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="26"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="62"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="64"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>0.97916666666666663</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F35"/>
+    <mergeCell ref="H17:H27"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="D18:D22"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="F18:F22"/>
+    <mergeCell ref="G16:G24"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="E6:E12"/>
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="N10:O10"/>
@@ -2766,27 +2785,23 @@
     <mergeCell ref="J7:M7"/>
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="F18:F22"/>
-    <mergeCell ref="G16:G24"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="E6:E12"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F35"/>
-    <mergeCell ref="H17:H27"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J2:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2796,27 +2811,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7494C9D9-F22D-466A-BABA-9763194FA04D}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="40" workbookViewId="0">
       <selection activeCell="P4" sqref="P4:Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="8" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.08984375" customWidth="1"/>
+    <col min="2" max="8" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -2824,28 +2839,28 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+    <row r="2" spans="1:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -2870,465 +2885,458 @@
       <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="69" t="s">
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="69" t="s">
+      <c r="O3" s="93"/>
+      <c r="P3" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="71"/>
-    </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="93"/>
+    </row>
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75">
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="86">
         <v>45937</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77" t="s">
+      <c r="O4" s="87"/>
+      <c r="P4" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="Q4" s="78"/>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="89"/>
+    </row>
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="82" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84" t="s">
+      <c r="O5" s="98"/>
+      <c r="P5" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="85"/>
-    </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="100"/>
+    </row>
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>0.375</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="118" t="s">
+      <c r="D6" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="82" t="s">
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="84" t="s">
+      <c r="O6" s="98"/>
+      <c r="P6" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="85"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="100"/>
+    </row>
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="88"/>
-      <c r="J7" s="89" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="67"/>
+      <c r="J7" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92" t="s">
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="95"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="105"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="107"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="88"/>
-      <c r="H8" s="87" t="s">
+      <c r="C8" s="90"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="67"/>
+      <c r="H8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="89" t="s">
+      <c r="J8" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92" t="s">
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="95"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="J9" s="96" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="J9" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99" t="s">
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="100"/>
-      <c r="P9" s="101" t="s">
+      <c r="O9" s="112"/>
+      <c r="P9" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="102"/>
-    </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q9" s="114"/>
+    </row>
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="88"/>
-      <c r="G10" s="118" t="s">
+      <c r="B10" s="67"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="67"/>
+      <c r="G10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="J10" s="103" t="s">
+      <c r="H10" s="67"/>
+      <c r="J10" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="105"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="107"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="119"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="37" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="88"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="67"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="67"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>0.5</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="108"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="88"/>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="90"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="68"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="67"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="37"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="88"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="90"/>
+      <c r="D13" s="58"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="37"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="88"/>
-    </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="90"/>
+      <c r="D14" s="58"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>0.5625</v>
       </c>
-      <c r="F15" s="125" t="s">
+      <c r="F15" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="88"/>
-    </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="112" t="s">
+      <c r="E16" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="125"/>
-      <c r="G16" s="87" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="66" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D17" s="113"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="88"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="75"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="67"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>0.625</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="113"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="88"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="75"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="67"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>0.64583333333333337</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="88"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="67"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="88"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="67"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="110"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="88"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="81"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="67"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="116"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="88"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="82"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="67"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>0.72916666666666663</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="88"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>0.75</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="D24" s="87" t="s">
+      <c r="B24" s="14"/>
+      <c r="D24" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="117"/>
-      <c r="H24" s="121" t="s">
+      <c r="E24" s="79"/>
+      <c r="H24" s="69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>0.77083333333333337</v>
       </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="H25" s="121"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="67"/>
+      <c r="H25" s="69"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B26" s="122" t="s">
+      <c r="B26" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="H26" s="121"/>
-    </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="H26" s="69"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>0.8125</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="H27" s="121"/>
-    </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="H27" s="69"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="108"/>
-      <c r="H28" s="121"/>
-    </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="H28" s="69"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>0.85416666666666663</v>
       </c>
-      <c r="C29" s="108"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="68"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>0.875</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="121" t="s">
+      <c r="F30" s="69" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>0.89583333333333337</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="87" t="s">
+      <c r="D31" s="67"/>
+      <c r="E31" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="121"/>
-    </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="69"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="121"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="69"/>
+    </row>
+    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>0.9375</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="121"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="69"/>
+    </row>
+    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="121"/>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="69"/>
+    </row>
+    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>0.97916666666666663</v>
       </c>
-      <c r="C35" s="108"/>
-      <c r="E35" s="108"/>
+      <c r="C35" s="68"/>
+      <c r="E35" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="F15:F23"/>
-    <mergeCell ref="H8:H15"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="E16:E24"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="H24:H28"/>
-    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="C6:C14"/>
     <mergeCell ref="E6:E12"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
@@ -3339,15 +3347,22 @@
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H8:H15"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="G16:G23"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="H24:H28"/>
     <mergeCell ref="G10:G14"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="F15:F23"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3357,26 +3372,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C506D4-5A48-4150-BB6C-267DE13AFBEF}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:O9"/>
+    <sheetView tabSelected="1" zoomScale="27" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="8" width="26.6640625" customWidth="1"/>
+    <col min="2" max="8" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+    <row r="1" spans="1:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3384,28 +3399,28 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+    <row r="2" spans="1:17" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-    </row>
-    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+    </row>
+    <row r="3" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
@@ -3430,281 +3445,321 @@
       <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="41" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41" t="s">
+      <c r="O3" s="27"/>
+      <c r="P3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="41"/>
-    </row>
-    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="27"/>
+    </row>
+    <row r="4" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-    </row>
-    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="120"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-    </row>
-    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+    </row>
+    <row r="6" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>0.375</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-    </row>
-    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="121"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-    </row>
-    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-    </row>
-    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>0.4375</v>
       </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-    </row>
-    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="123"/>
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="123"/>
+      <c r="N9" s="124"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="123"/>
+      <c r="K10" s="123"/>
+      <c r="L10" s="123"/>
+      <c r="M10" s="123"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="G11" s="56"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-    </row>
-    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="37"/>
+      <c r="G11" s="40"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>0.5</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="G12" s="56"/>
-    </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="37"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="G13" s="56"/>
-    </row>
-    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="37"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="G14" s="57"/>
-    </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="126"/>
+      <c r="E15" s="126"/>
+    </row>
+    <row r="16" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="126"/>
+      <c r="E16" s="126"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>0.60416666666666663</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="126"/>
+      <c r="E17" s="126"/>
+    </row>
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="126"/>
+      <c r="E18" s="126"/>
+    </row>
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>0.64583333333333337</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="126"/>
+      <c r="E19" s="126"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="126"/>
+      <c r="E20" s="126"/>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>0.6875</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="126"/>
+      <c r="E21" s="126"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>0.70833333333333337</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="126"/>
+      <c r="E22" s="126"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="126" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>0.77083333333333337</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="F25" s="126"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>0.79166666666666663</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="F26" s="126"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>0.8125</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="F27" s="126"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="F28" s="126"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>0.85416666666666663</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="F29" s="126"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="126"/>
+      <c r="D30" s="126"/>
+      <c r="F30" s="126"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>0.89583333333333337</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="F31" s="126"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="126"/>
+      <c r="D32" s="126"/>
+      <c r="F32" s="126"/>
+    </row>
+    <row r="33" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>0.9375</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>0.97916666666666663</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
+  <mergeCells count="36">
+    <mergeCell ref="F24:F32"/>
+    <mergeCell ref="D24:D32"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="E14:E22"/>
+    <mergeCell ref="B24:B32"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:O9"/>
@@ -3716,6 +3771,26 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="N11:O11"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
